--- a/docs/backlog.xlsx
+++ b/docs/backlog.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868F5D9-16A3-4075-8C81-20475A391FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C788D-F322-4477-A537-E1CCFFA53D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,9 +65,6 @@
     <t>Datenbankverbindung fixen (Konfiguration prüfen, Connection-String, Credentials, Migrations)</t>
   </si>
   <si>
-    <t>GitHub Actions CI: Build, Lint &amp; Tests (Syntax-Prüfung) einrichten</t>
-  </si>
-  <si>
     <t>UC-005 &amp; UC-006: Lernaufgabe abschließen &amp; Punkte gutschreiben implementieren</t>
   </si>
   <si>
@@ -152,6 +162,9 @@
   </si>
   <si>
     <t>Reporting</t>
+  </si>
+  <si>
+    <t>GitHub Struktur verbessern</t>
   </si>
 </sst>
 </file>
@@ -522,7 +535,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -573,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -587,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -601,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -615,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -629,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -643,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -657,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -671,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -685,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -699,10 +712,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -713,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -727,10 +740,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -741,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -755,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -769,10 +782,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -783,10 +796,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -797,10 +810,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -811,10 +824,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
